--- a/tips/images/Qiita_GenU.xlsx
+++ b/tips/images/Qiita_GenU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takujiru\MyProject\mono-repo\tips\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC824593-62A9-4645-BEBD-C94CAB0C2DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F38F170-D3C2-4B34-A652-976E370DFF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="2130" windowWidth="21300" windowHeight="15860" xr2:uid="{CFECC725-2370-4A98-A5D8-9D25976EA520}"/>
   </bookViews>
@@ -443,6 +443,120 @@
         <a:xfrm>
           <a:off x="8164285" y="12718142"/>
           <a:ext cx="4109357" cy="1505857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325581</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>170514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A8B449-7FB6-4CEE-B829-E0F6637D3CC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662214" y="16555357"/>
+          <a:ext cx="11583224" cy="7427657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226785</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C701599B-84D6-494B-BBFE-90BCE94A09D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8164285" y="22524357"/>
+          <a:ext cx="2657929" cy="1505857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F85EAB0-6004-4BDF-A774-684BA68CF216}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/tips/images/Qiita_GenU.xlsx
+++ b/tips/images/Qiita_GenU.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takujiru\MyProject\mono-repo\tips\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F38F170-D3C2-4B34-A652-976E370DFF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF21E84-099C-43A5-BEAC-907743938F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="2130" windowWidth="21300" windowHeight="15860" xr2:uid="{CFECC725-2370-4A98-A5D8-9D25976EA520}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="37190" windowHeight="21820" xr2:uid="{CFECC725-2370-4A98-A5D8-9D25976EA520}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,143 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>- `/chats` (POST) =&gt; [`createChatFunction`](#createchatfunction)</t>
+  </si>
+  <si>
+    <t>- `/chats` (GET) =&gt; [`listChatsFunction`](#listchatsfunction)</t>
+  </si>
+  <si>
+    <t>- `/chats/{chatId}` (GET) =&gt; [`findChatbyIdFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/chats/{chatId}` (DELETE) =&gt; [`deleteChatFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/chats/{chatId}/title` (GET) =&gt; [`updateChatTitleFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/chats/{chatId}/messages` (POST) =&gt; [`createMessagesFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/chats/{chatId}/messages` (GET) =&gt; [`listMessagesFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/chats/{chatId}/feedbacks` (POST) =&gt; [`updateFeedbackFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/file/url` (POST) =&gt; [`getSignedUrlFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/file/url` (GET) =&gt; [`getFileDownloadSignedUrlFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/file/{fileName}` (DELETE) =&gt; [`deleteFileFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/image/generate` (POST) =&gt; [`generateImageFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/predict` (POST) =&gt; [`predictFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/predict/title` (POST) =&gt; [`predictTitleFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/shares/chat/{chatId}` (POST) =&gt; [`createShareId`](#)</t>
+  </si>
+  <si>
+    <t>- `/shares/chat/{chatId}` (GET) =&gt; [`findShareId`](#)</t>
+  </si>
+  <si>
+    <t>- `/shares/share/{shareId}` (GET) =&gt; [`getSharedChat`](#)</t>
+  </si>
+  <si>
+    <t>- `/shares/share/{shareId}` (DELETE) =&gt; [`deleteShareId`](#)</t>
+  </si>
+  <si>
+    <t>- `/systemcontexts` (POST) =&gt; [`createSystemContextFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/systemcontexts` (GET) =&gt; [`listSystemContextsFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/systemcontexts/{systemContextId}` (POST) =&gt; [`deleteSystemContextFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/systemcontexts/{systemContextId}/title` (POST) =&gt; [`updateSystemContextTitleFunction`](#)</t>
+  </si>
+  <si>
+    <t>- `/web-text` (POST) =&gt; [`getWebTextFunction`](#)</t>
+  </si>
+  <si>
+    <t>findchatbyidfunction</t>
+  </si>
+  <si>
+    <t>deletechatfunction</t>
+  </si>
+  <si>
+    <t>updatechattitlefunction</t>
+  </si>
+  <si>
+    <t>createmessagesfunction</t>
+  </si>
+  <si>
+    <t>listmessagesfunction</t>
+  </si>
+  <si>
+    <t>updatefeedbackfunction</t>
+  </si>
+  <si>
+    <t>getsignedurlfunction</t>
+  </si>
+  <si>
+    <t>getfiledownloadsignedurlfunction</t>
+  </si>
+  <si>
+    <t>deletefilefunction</t>
+  </si>
+  <si>
+    <t>generateimagefunction</t>
+  </si>
+  <si>
+    <t>predictfunction</t>
+  </si>
+  <si>
+    <t>predicttitlefunction</t>
+  </si>
+  <si>
+    <t>createshareid</t>
+  </si>
+  <si>
+    <t>findshareid</t>
+  </si>
+  <si>
+    <t>getsharedchat</t>
+  </si>
+  <si>
+    <t>deleteshareid</t>
+  </si>
+  <si>
+    <t>createsystemcontextfunction</t>
+  </si>
+  <si>
+    <t>listsystemcontextsfunction</t>
+  </si>
+  <si>
+    <t>deletesystemcontextfunction</t>
+  </si>
+  <si>
+    <t>updatesystemcontexttitlefunction</t>
+  </si>
+  <si>
+    <t>getwebtextfunction</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -183,8 +321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2512786" y="208643"/>
-          <a:ext cx="1460500" cy="3782786"/>
+          <a:off x="2513969" y="208643"/>
+          <a:ext cx="1461683" cy="3776081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -253,8 +391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="788834" y="210283"/>
-          <a:ext cx="1724322" cy="722442"/>
+          <a:off x="789229" y="210283"/>
+          <a:ext cx="1725110" cy="720864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -441,8 +579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8164285" y="12718142"/>
-          <a:ext cx="4109357" cy="1505857"/>
+          <a:off x="8114805" y="12949051"/>
+          <a:ext cx="4084616" cy="1530598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,6 +732,1220 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325581</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>170514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D5167E-A82E-41BB-86CF-14C2BAE43266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="658091" y="24938182"/>
+          <a:ext cx="11513126" cy="7559605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310079</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>14844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>424442</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE261EF2-160D-4BAE-9915-A495DD53FCE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5569373" y="28963373"/>
+          <a:ext cx="2086598" cy="2823980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>196954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426091</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>12252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF3EA93-0C1D-4247-A7C7-EFD88CFCA313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5571022" y="28219130"/>
+          <a:ext cx="2086598" cy="741651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="80000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の入出力に含まれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="80000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機密情報のフィルタリング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325581</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>170514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04087695-3B52-49B1-BBE1-9BF904C8CEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657412" y="32885529"/>
+          <a:ext cx="11501581" cy="7581338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63549</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>231490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366059</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EF4493-E2B9-4B71-A592-BC3AA22C5F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008020" y="32885431"/>
+          <a:ext cx="3589568" cy="5124922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354903</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>231490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94DD2EB-1491-8828-9D40-585E7A790212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7586432" y="32885431"/>
+          <a:ext cx="3589568" cy="2637216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463176</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>29875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366058</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A6367B-AFC3-ABAC-673C-9D1EF213B119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722470" y="38010346"/>
+          <a:ext cx="1875117" cy="1733184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>98</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325581</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>170612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B072F7FB-3F5F-4FC6-B92B-AA90CDED4917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662609" y="39844968"/>
+          <a:ext cx="11589929" cy="7415035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>49915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC23630C-C87C-46B3-869E-4BC31FF351EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3983122" y="42385089"/>
+          <a:ext cx="1649052" cy="1271180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Auth</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リソース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7469</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276087</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>211550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33F3A7B-F7FA-C1BA-ED03-2F20CF7BCFE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3983121" y="41203218"/>
+          <a:ext cx="3581662" cy="1796289"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX1" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX2" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY2" fmla="*/ 1822862 h 1822862"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY3" fmla="*/ 1822862 h 1822862"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX1" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX2" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY2" fmla="*/ 1822862 h 1822862"/>
+            <a:gd name="connsiteX3" fmla="*/ 1746250 w 3585416"/>
+            <a:gd name="connsiteY3" fmla="*/ 1156112 h 1822862"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX1" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX2" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY2" fmla="*/ 1822862 h 1822862"/>
+            <a:gd name="connsiteX3" fmla="*/ 2667469 w 3585416"/>
+            <a:gd name="connsiteY3" fmla="*/ 1492249 h 1822862"/>
+            <a:gd name="connsiteX4" fmla="*/ 1746250 w 3585416"/>
+            <a:gd name="connsiteY4" fmla="*/ 1156112 h 1822862"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX1" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX2" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY2" fmla="*/ 1822862 h 1822862"/>
+            <a:gd name="connsiteX3" fmla="*/ 1742751 w 3585416"/>
+            <a:gd name="connsiteY3" fmla="*/ 1821656 h 1822862"/>
+            <a:gd name="connsiteX4" fmla="*/ 1746250 w 3585416"/>
+            <a:gd name="connsiteY4" fmla="*/ 1156112 h 1822862"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX1" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX2" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY2" fmla="*/ 1822862 h 1822862"/>
+            <a:gd name="connsiteX3" fmla="*/ 1742751 w 3585416"/>
+            <a:gd name="connsiteY3" fmla="*/ 1821656 h 1822862"/>
+            <a:gd name="connsiteX4" fmla="*/ 1746250 w 3585416"/>
+            <a:gd name="connsiteY4" fmla="*/ 1156112 h 1822862"/>
+            <a:gd name="connsiteX5" fmla="*/ 881531 w 3585416"/>
+            <a:gd name="connsiteY5" fmla="*/ 591343 h 1822862"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX1" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1822862"/>
+            <a:gd name="connsiteX2" fmla="*/ 3585416 w 3585416"/>
+            <a:gd name="connsiteY2" fmla="*/ 1822862 h 1822862"/>
+            <a:gd name="connsiteX3" fmla="*/ 1742751 w 3585416"/>
+            <a:gd name="connsiteY3" fmla="*/ 1821656 h 1822862"/>
+            <a:gd name="connsiteX4" fmla="*/ 1746250 w 3585416"/>
+            <a:gd name="connsiteY4" fmla="*/ 1156112 h 1822862"/>
+            <a:gd name="connsiteX5" fmla="*/ 468 w 3585416"/>
+            <a:gd name="connsiteY5" fmla="*/ 1166811 h 1822862"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3585416"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 1822862"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3585416" h="1822862">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3585416" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3585416" y="1822862"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1742751" y="1821656"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1743917" y="1599808"/>
+                <a:pt x="1745084" y="1377960"/>
+                <a:pt x="1746250" y="1156112"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="468" y="1166811"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Api</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リソース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310317</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>102578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141655</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>191022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A2BDA3-838D-0E1E-9741-CEAE7934B3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7599013" y="39947448"/>
+          <a:ext cx="2481772" cy="1220400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Database</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リソース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7469</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>105132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276086</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>193261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3A3FF4-393B-F854-8656-AD15E6FA7175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3983121" y="39950002"/>
+          <a:ext cx="3581661" cy="1220085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リソース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310317</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>224057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>375478</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>93871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF211699-0A21-8C0A-DA52-9672F7DE88DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7599013" y="41200883"/>
+          <a:ext cx="3378204" cy="1228162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Database</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リソース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>110654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>629479</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>209826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07901BA-3687-C586-B75F-8BD371A49494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2368826" y="39955524"/>
+          <a:ext cx="1573696" cy="1231128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CommonWebAcl </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リソース</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -921,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F85EAB0-6004-4BDF-A774-684BA68CF216}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T185" sqref="T185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -934,4 +2286,283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8C7A5-A603-42F0-93E2-156E963D489D}">
+  <dimension ref="B2:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L24" sqref="L4:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="str">
+        <f>SUBSTITUTE(B4,"#","#"&amp;J4)</f>
+        <v>- `/chats/{chatId}` (GET) =&gt; [`findChatbyIdFunction`](#findchatbyidfunction)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L24" si="0">SUBSTITUTE(B5,"#","#"&amp;J5)</f>
+        <v>- `/chats/{chatId}` (DELETE) =&gt; [`deleteChatFunction`](#deletechatfunction)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/chats/{chatId}/title` (GET) =&gt; [`updateChatTitleFunction`](#updatechattitlefunction)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/chats/{chatId}/messages` (POST) =&gt; [`createMessagesFunction`](#createmessagesfunction)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/chats/{chatId}/messages` (GET) =&gt; [`listMessagesFunction`](#listmessagesfunction)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/chats/{chatId}/feedbacks` (POST) =&gt; [`updateFeedbackFunction`](#updatefeedbackfunction)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/file/url` (POST) =&gt; [`getSignedUrlFunction`](#getsignedurlfunction)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/file/url` (GET) =&gt; [`getFileDownloadSignedUrlFunction`](#getfiledownloadsignedurlfunction)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/file/{fileName}` (DELETE) =&gt; [`deleteFileFunction`](#deletefilefunction)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/image/generate` (POST) =&gt; [`generateImageFunction`](#generateimagefunction)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/predict` (POST) =&gt; [`predictFunction`](#predictfunction)</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/predict/title` (POST) =&gt; [`predictTitleFunction`](#predicttitlefunction)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/shares/chat/{chatId}` (POST) =&gt; [`createShareId`](#createshareid)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/shares/chat/{chatId}` (GET) =&gt; [`findShareId`](#findshareid)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/shares/share/{shareId}` (GET) =&gt; [`getSharedChat`](#getsharedchat)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/shares/share/{shareId}` (DELETE) =&gt; [`deleteShareId`](#deleteshareid)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/systemcontexts` (POST) =&gt; [`createSystemContextFunction`](#createsystemcontextfunction)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/systemcontexts` (GET) =&gt; [`listSystemContextsFunction`](#listsystemcontextsfunction)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/systemcontexts/{systemContextId}` (POST) =&gt; [`deleteSystemContextFunction`](#deletesystemcontextfunction)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/systemcontexts/{systemContextId}/title` (POST) =&gt; [`updateSystemContextTitleFunction`](#updatesystemcontexttitlefunction)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>- `/web-text` (POST) =&gt; [`getWebTextFunction`](#getwebtextfunction)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>